--- a/modele/local_non_chauffe.xlsx
+++ b/modele/local_non_chauffe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project\action-21\reno-audit\modele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE99AA84-80CC-4513-8D86-2EA7C6C041E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5511CB5-E1E5-4F8F-9EDD-0522E3C5C8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="837" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="837" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modele" sheetId="29" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="217">
   <si>
     <t>Inconnu</t>
   </si>
@@ -1360,8 +1360,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{CAD1B86F-10F0-4495-8AD8-BF06AADFFB5B}" name="uvue" displayName="uvue" ref="A1:C13" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
-  <autoFilter ref="A1:C13" xr:uid="{CAD1B86F-10F0-4495-8AD8-BF06AADFFB5B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{CAD1B86F-10F0-4495-8AD8-BF06AADFFB5B}" name="uvue" displayName="uvue" ref="A1:C14" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="A1:C14" xr:uid="{CAD1B86F-10F0-4495-8AD8-BF06AADFFB5B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2618,7 +2618,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B35"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6187,10 +6187,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA92263-A1B4-4DEF-97C2-16C4844A13EB}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6344,6 +6344,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -6357,7 +6365,7 @@
   <dimension ref="A1:G257"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6767,9 +6775,6 @@
       <c r="C18" s="3">
         <v>0</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E18" s="3">
         <v>0.25</v>
       </c>
@@ -7132,9 +7137,6 @@
       <c r="C34" s="3">
         <v>0</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E34" s="3">
         <v>0.25</v>
       </c>
@@ -7497,9 +7499,6 @@
       <c r="C50" s="3">
         <v>0</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E50" s="3">
         <v>0.25</v>
       </c>
@@ -7862,9 +7861,6 @@
       <c r="C66" s="3">
         <v>0</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E66" s="3">
         <v>0.25</v>
       </c>
@@ -8227,9 +8223,6 @@
       <c r="C82" s="3">
         <v>0</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E82" s="3">
         <v>0.25</v>
       </c>
@@ -8592,9 +8585,6 @@
       <c r="C98" s="3">
         <v>0</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E98" s="3">
         <v>0.25</v>
       </c>
@@ -8957,9 +8947,6 @@
       <c r="C114" s="3">
         <v>0</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E114" s="3">
         <v>0.25</v>
       </c>
@@ -9322,9 +9309,6 @@
       <c r="C130" s="3">
         <v>1</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E130" s="3">
         <v>0.25</v>
       </c>
@@ -9687,9 +9671,6 @@
       <c r="C146" s="3">
         <v>1</v>
       </c>
-      <c r="D146" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E146" s="3">
         <v>0.25</v>
       </c>
@@ -10052,9 +10033,6 @@
       <c r="C162" s="3">
         <v>1</v>
       </c>
-      <c r="D162" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E162" s="3">
         <v>0.25</v>
       </c>
@@ -10417,9 +10395,6 @@
       <c r="C178" s="3">
         <v>1</v>
       </c>
-      <c r="D178" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E178" s="3">
         <v>0.25</v>
       </c>
@@ -10782,9 +10757,6 @@
       <c r="C194" s="3">
         <v>1</v>
       </c>
-      <c r="D194" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E194" s="3">
         <v>0.25</v>
       </c>
@@ -11147,9 +11119,6 @@
       <c r="C210" s="3">
         <v>1</v>
       </c>
-      <c r="D210" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E210" s="3">
         <v>0.25</v>
       </c>
@@ -11512,9 +11481,6 @@
       <c r="C226" s="3">
         <v>1</v>
       </c>
-      <c r="D226" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E226" s="3">
         <v>0.25</v>
       </c>
@@ -11876,9 +11842,6 @@
       </c>
       <c r="C242" s="3">
         <v>1</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E242" s="3">
         <v>0.25</v>
@@ -12245,7 +12208,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B25"/>
+      <selection activeCell="A2" sqref="A2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12694,8 +12657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{380736C9-D3AF-4424-A664-B651112C54DE}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E27" sqref="A1:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
